--- a/Backlog HerpSafe/Backlog - HerpSafe.xlsx
+++ b/Backlog HerpSafe/Backlog - HerpSafe.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4A44E74-2F9E-4854-83A9-5609EEFB77D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6718dc6c59bca538/Documentos/Conteudo Semestre 1/Projetos/SPRINT 01/HerbSafe/HerpSafe/Backlog HerpSafe/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{D4A44E74-2F9E-4854-83A9-5609EEFB77D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A023728-742F-4402-B607-98535A3CFFB4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="13740" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
   <si>
-    <t>PROJETO HERBSAFE - BACKLOG</t>
-  </si>
-  <si>
     <t>LEGENDA</t>
   </si>
   <si>
@@ -286,13 +288,16 @@
   </si>
   <si>
     <t>Organizar e desenvolver os slides com os conteúdos que serão apresentados sobre o projeto.</t>
+  </si>
+  <si>
+    <t>PROJETO HERPSAFE - BACKLOG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -747,9 +752,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -757,9 +759,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -809,9 +808,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,160 +852,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-        <name val="Euphemia"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1" relativeIndent="1"/>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-        <name val="Euphemia"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Euphemia"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-        <name val="Euphemia"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Euphemia"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Berlin Sans FB"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1052,6 +894,160 @@
         <color rgb="FF0070C0"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+        <name val="Euphemia"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" relativeIndent="1"/>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+        <name val="Euphemia"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Euphemia"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+        <name val="Euphemia"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Euphemia"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Berlin Sans FB"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
@@ -1076,14 +1072,18 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{793FC69C-71CE-4556-9C37-0826F2E16FD0}" name="Tabela3" displayName="Tabela3" ref="B4:E39" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{793FC69C-71CE-4556-9C37-0826F2E16FD0}" name="Tabela3" displayName="Tabela3" ref="B4:E39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B4:E39" xr:uid="{793FC69C-71CE-4556-9C37-0826F2E16FD0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DC52230C-B1FE-4ECC-9536-18021125FDB7}" name="Requisitos" dataDxfId="3" dataCellStyle="20% - Ênfase6"/>
-    <tableColumn id="2" xr3:uid="{88DC286E-6412-49D9-81CB-D0EADE72BF80}" name="Descrição" dataDxfId="2" dataCellStyle="20% - Ênfase6"/>
-    <tableColumn id="3" xr3:uid="{4451450A-FF03-4678-BB5A-7B5D84F3A8D9}" name="Classificação" dataDxfId="1" dataCellStyle="20% - Ênfase6"/>
-    <tableColumn id="4" xr3:uid="{162F1548-DB66-452B-8444-9C6AA3CAC358}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DC52230C-B1FE-4ECC-9536-18021125FDB7}" name="Requisitos" dataDxfId="9" dataCellStyle="20% - Ênfase6"/>
+    <tableColumn id="2" xr3:uid="{88DC286E-6412-49D9-81CB-D0EADE72BF80}" name="Descrição" dataDxfId="8" dataCellStyle="20% - Ênfase6"/>
+    <tableColumn id="3" xr3:uid="{4451450A-FF03-4678-BB5A-7B5D84F3A8D9}" name="Classificação" dataDxfId="7" dataCellStyle="20% - Ênfase6"/>
+    <tableColumn id="4" xr3:uid="{162F1548-DB66-452B-8444-9C6AA3CAC358}" name="Status" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1408,11 +1408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="3" width="73.5703125" customWidth="1"/>
@@ -1425,565 +1425,565 @@
     <col min="10" max="11" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="24" customHeight="1"/>
-    <row r="3" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B3" s="46" t="s">
+    <row r="2" spans="2:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="48" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="2:12" ht="26.25" customHeight="1">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="H4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="J4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="48"/>
+      <c r="K7" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="K8" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="H9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="40"/>
+      <c r="K9" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="K10" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="25" t="s">
+    </row>
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="2:12" ht="29.25" customHeight="1">
-      <c r="B5" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="57.75" customHeight="1">
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="K7" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="24.75" customHeight="1">
-      <c r="B8" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="33" t="s">
+    </row>
+    <row r="26" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="41"/>
-      <c r="K8" s="29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="43"/>
-      <c r="K9" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="30">
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="45"/>
-      <c r="K10" s="31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="58.5">
-      <c r="B12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="30">
-      <c r="B13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="30">
-      <c r="B14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="27" customHeight="1">
-      <c r="B15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="30">
-      <c r="B16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="30">
-      <c r="B17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30">
-      <c r="B18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="44.25">
-      <c r="B19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="44.25">
-      <c r="B20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="44.25">
-      <c r="B21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="27" customHeight="1">
-      <c r="B22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="35.25" customHeight="1">
-      <c r="B23" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="27.75">
-      <c r="B24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="48" customHeight="1">
-      <c r="B27" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="27.75">
-      <c r="B29" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="27.75">
-      <c r="B30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="29.25" customHeight="1">
-      <c r="B32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="27.75">
-      <c r="B34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="27.75">
-      <c r="B35" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="26.25" customHeight="1">
-      <c r="B37" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="25.5" customHeight="1">
-      <c r="B38" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="19" t="s">
+      <c r="E38" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="27.75">
-      <c r="B39" s="32" t="s">
+      <c r="C39" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>6</v>
+      <c r="D39" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1996,30 +1996,31 @@
     <mergeCell ref="H7:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D39">
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Desejável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Importante"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Essencial"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E39">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="E9:E22 E24">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Concluido"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Pendente"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>